--- a/biology/Botanique/Schizachyrium/Schizachyrium.xlsx
+++ b/biology/Botanique/Schizachyrium/Schizachyrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schizachyrium est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Panicoideae[3], très répandu dans les régions tropicales et subtropicales du monde, qui comprend environ 60 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schizachyrium est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Panicoideae, très répandu dans les régions tropicales et subtropicales du monde, qui comprend environ 60 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique est dérivé des mots grecs anciens σχίζειν (schizein), qui signifie « diviser », et ἄχυρον (achyron ), qui signifie « balle ». Il se réfère soit à la glume, soit aux lemmes dentés[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique est dérivé des mots grecs anciens σχίζειν (schizein), qui signifie « diviser », et ἄχυρον (achyron ), qui signifie « balle ». Il se réfère soit à la glume, soit aux lemmes dentés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre comprennent[7]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre comprennent: 
 Schizachyrium beckii Killeen - Bolivie
 Schizachyrium bemarivense A.Camus - Madagascar
 Schizachyrium brevifolium (Sw.) Nees ex Buse – Serillo dulce - répandu sous les tropiques
@@ -597,7 +613,7 @@
 Schizachyrium scabriflorum (Rupr. Ex Hack.) A.Camus - Bolivie, Paraguay, nord de l'Argentine, sud du Brésil
 Schizachyrium schweinfurthii (Hack.) Stapf - Afrique tropicale
 Schizachyrium scintillans Stapf -
-Certaines espèces anciennement incluses dans Schizachyrum sont maintenant considérées comme mieux adaptées à d'autres genres : Andropogon, Dichanthium, Rottboellia, Sehima, Sphaerocaryum[7].
+Certaines espèces anciennement incluses dans Schizachyrum sont maintenant considérées comme mieux adaptées à d'autres genres : Andropogon, Dichanthium, Rottboellia, Sehima, Sphaerocaryum.
 </t>
         </is>
       </c>
